--- a/Train/Files/Стоимость.xlsx
+++ b/Train/Files/Стоимость.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\ABBOSBEK\Documents\Visual Studio 2019\Projects\Train\Train-new\Train\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Abbosbek\Documents\Visual Studio 2022\Projects\Abbossbek\Train-new\Train\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8118FF-74BA-4D65-B628-30E820E2C666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3282B47-3059-4AC6-83DC-A905897F0D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="3915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4943" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="998">
   <si>
     <r>
       <rPr>
@@ -12256,6 +12256,9 @@
   </si>
   <si>
     <t>Бункерный полувагон для битума</t>
+  </si>
+  <si>
+    <t>к4</t>
   </si>
 </sst>
 </file>
@@ -12440,7 +12443,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12456,6 +12459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12914,7 +12923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13184,6 +13193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13469,19 +13481,19 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>977</v>
       </c>
@@ -13498,7 +13510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>978</v>
       </c>
@@ -13515,7 +13527,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>979</v>
       </c>
@@ -13532,7 +13544,7 @@
         <v>0.57869999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>980</v>
       </c>
@@ -13549,7 +13561,7 @@
         <v>0.65480000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>981</v>
       </c>
@@ -13559,14 +13571,14 @@
       <c r="C5" s="57">
         <v>8</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>626</v>
+      <c r="E5" s="92" t="s">
+        <v>997</v>
       </c>
       <c r="F5">
-        <v>1250882</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>982</v>
       </c>
@@ -13577,13 +13589,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F6">
-        <v>10523.63</v>
+        <v>1250882</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>983</v>
       </c>
@@ -13594,13 +13606,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F7">
-        <v>12568.39</v>
+        <v>10523.63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>984</v>
       </c>
@@ -13611,13 +13623,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F8">
-        <v>144.44</v>
+        <v>12568.39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>985</v>
       </c>
@@ -13627,8 +13639,14 @@
       <c r="C9" s="57">
         <v>8</v>
       </c>
+      <c r="E9" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="F9">
+        <v>144.44</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>995</v>
       </c>
@@ -13639,7 +13657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>996</v>
       </c>
@@ -13650,7 +13668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>986</v>
       </c>
@@ -13661,7 +13679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>987</v>
       </c>
@@ -13672,7 +13690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>988</v>
       </c>
@@ -13683,7 +13701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>989</v>
       </c>
@@ -13694,7 +13712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>990</v>
       </c>
@@ -13705,7 +13723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>991</v>
       </c>
@@ -13730,18 +13748,18 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="10" width="14"/>
-    <col min="47" max="47" width="13.6640625" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
     <col min="54" max="54" width="15" customWidth="1"/>
-    <col min="55" max="55" width="16.6640625" customWidth="1"/>
-    <col min="56" max="57" width="14.6640625" customWidth="1"/>
-    <col min="61" max="61" width="15.33203125" customWidth="1"/>
+    <col min="55" max="55" width="16.7109375" customWidth="1"/>
+    <col min="56" max="57" width="14.7109375" customWidth="1"/>
+    <col min="61" max="61" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -13926,7 +13944,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -14111,7 +14129,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -14296,7 +14314,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -14481,7 +14499,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -14666,7 +14684,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -14851,7 +14869,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -15036,7 +15054,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -15221,7 +15239,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -15406,7 +15424,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -15591,7 +15609,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -15776,7 +15794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -15961,7 +15979,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -16146,7 +16164,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -16331,7 +16349,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -16516,7 +16534,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -16701,7 +16719,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -16886,7 +16904,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -17071,7 +17089,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -17256,7 +17274,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -17441,7 +17459,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -17626,7 +17644,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
@@ -17811,7 +17829,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -17996,7 +18014,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -18181,7 +18199,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="25" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -18366,7 +18384,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
@@ -18551,7 +18569,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -18736,7 +18754,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -18921,7 +18939,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -19106,7 +19124,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
@@ -19291,7 +19309,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -19476,7 +19494,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -19661,7 +19679,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
@@ -19846,7 +19864,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -20031,7 +20049,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -20216,7 +20234,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>38</v>
       </c>
@@ -20401,7 +20419,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="37" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>39</v>
       </c>
@@ -20586,7 +20604,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>72</v>
       </c>
@@ -20771,7 +20789,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="39" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>73</v>
       </c>
@@ -20956,7 +20974,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>74</v>
       </c>
@@ -21141,7 +21159,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>75</v>
       </c>
@@ -21326,7 +21344,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>76</v>
       </c>
@@ -21511,7 +21529,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -21696,7 +21714,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>78</v>
       </c>
@@ -21881,7 +21899,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:61" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>79</v>
       </c>
@@ -22066,7 +22084,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>80</v>
       </c>
@@ -22251,7 +22269,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="47" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>81</v>
       </c>
@@ -22436,7 +22454,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>82</v>
       </c>
@@ -22621,7 +22639,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>83</v>
       </c>
@@ -22806,7 +22824,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:61" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>84</v>
       </c>
@@ -22991,7 +23009,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:61" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:61" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>85</v>
       </c>
@@ -23176,7 +23194,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="52" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>86</v>
       </c>
@@ -23361,7 +23379,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="53" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>87</v>
       </c>
@@ -23546,7 +23564,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="54" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>88</v>
       </c>
@@ -23731,7 +23749,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="55" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>89</v>
       </c>
@@ -23916,7 +23934,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>90</v>
       </c>
@@ -24101,7 +24119,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="57" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>91</v>
       </c>
@@ -24286,7 +24304,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="58" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>92</v>
       </c>
@@ -24471,7 +24489,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>93</v>
       </c>
@@ -24656,7 +24674,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>94</v>
       </c>
@@ -24841,7 +24859,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>95</v>
       </c>
@@ -25026,7 +25044,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>96</v>
       </c>
@@ -25211,7 +25229,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="63" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>97</v>
       </c>
@@ -25396,7 +25414,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="64" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>98</v>
       </c>
@@ -25581,7 +25599,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>99</v>
       </c>
@@ -25766,7 +25784,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="66" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>100</v>
       </c>
@@ -25951,7 +25969,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>101</v>
       </c>
@@ -26136,7 +26154,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="68" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>102</v>
       </c>
@@ -26321,7 +26339,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>103</v>
       </c>
@@ -26506,7 +26524,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="70" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>104</v>
       </c>
@@ -26691,7 +26709,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>105</v>
       </c>
@@ -26876,7 +26894,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>106</v>
       </c>
@@ -27061,7 +27079,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="73" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>107</v>
       </c>
@@ -27126,7 +27144,7 @@
       <c r="BH73" s="9"/>
       <c r="BI73" s="9"/>
     </row>
-    <row r="74" spans="1:61" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>108</v>
       </c>
@@ -27311,67 +27329,67 @@
         <v>625</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
         <v>1</v>
       </c>
@@ -27392,9 +27410,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>929</v>
       </c>
@@ -27579,7 +27597,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="52">
         <v>10</v>
       </c>
@@ -27764,7 +27782,7 @@
         <v>8252092</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>11</v>
       </c>
@@ -27949,7 +27967,7 @@
         <v>8283410</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="52">
         <v>12</v>
       </c>
@@ -28134,7 +28152,7 @@
         <v>8330386</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
         <v>13</v>
       </c>
@@ -28319,7 +28337,7 @@
         <v>8361703</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>14</v>
       </c>
@@ -28504,7 +28522,7 @@
         <v>8408679</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>15</v>
       </c>
@@ -28689,7 +28707,7 @@
         <v>8455655</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="52">
         <v>16</v>
       </c>
@@ -28874,7 +28892,7 @@
         <v>8471313</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="52">
         <v>17</v>
       </c>
@@ -29059,7 +29077,7 @@
         <v>8533948</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="52">
         <v>18</v>
       </c>
@@ -29244,7 +29262,7 @@
         <v>8549606</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="52">
         <v>19</v>
       </c>
@@ -29429,7 +29447,7 @@
         <v>8596582</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="52">
         <v>20</v>
       </c>
@@ -29614,7 +29632,7 @@
         <v>8627899</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="52">
         <v>21</v>
       </c>
@@ -29799,7 +29817,7 @@
         <v>8674875</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="52">
         <v>22</v>
       </c>
@@ -29984,7 +30002,7 @@
         <v>8706192</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>23</v>
       </c>
@@ -30169,7 +30187,7 @@
         <v>8737510</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="52">
         <v>24</v>
       </c>
@@ -30354,7 +30372,7 @@
         <v>8768827</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="52">
         <v>25</v>
       </c>
@@ -30539,7 +30557,7 @@
         <v>8815803</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="52">
         <v>26</v>
       </c>
@@ -30724,7 +30742,7 @@
         <v>8831461</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="52">
         <v>27</v>
       </c>
@@ -30909,7 +30927,7 @@
         <v>8894096</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="52">
         <v>28</v>
       </c>
@@ -31094,7 +31112,7 @@
         <v>8909754</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="52">
         <v>29</v>
       </c>
@@ -31279,7 +31297,7 @@
         <v>8972389</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="52">
         <v>30</v>
       </c>
@@ -31464,7 +31482,7 @@
         <v>9003706</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="52">
         <v>31</v>
       </c>
@@ -31649,7 +31667,7 @@
         <v>9035023</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="52">
         <v>32</v>
       </c>
@@ -31834,7 +31852,7 @@
         <v>9081999</v>
       </c>
     </row>
-    <row r="25" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="52">
         <v>33</v>
       </c>
@@ -32019,7 +32037,7 @@
         <v>9113317</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="52">
         <v>34</v>
       </c>
@@ -32204,7 +32222,7 @@
         <v>9160292</v>
       </c>
     </row>
-    <row r="27" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="52">
         <v>35</v>
       </c>
@@ -32389,7 +32407,7 @@
         <v>9175951</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="52">
         <v>36</v>
       </c>
@@ -32574,7 +32592,7 @@
         <v>9238585</v>
       </c>
     </row>
-    <row r="29" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="52">
         <v>37</v>
       </c>
@@ -32759,7 +32777,7 @@
         <v>9254244</v>
       </c>
     </row>
-    <row r="30" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="52">
         <v>38</v>
       </c>
@@ -32944,7 +32962,7 @@
         <v>9301220</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="52">
         <v>39</v>
       </c>
@@ -33129,7 +33147,7 @@
         <v>9332537</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="52">
         <v>40</v>
       </c>
@@ -33314,7 +33332,7 @@
         <v>9379513</v>
       </c>
     </row>
-    <row r="33" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="52">
         <v>41</v>
       </c>
@@ -33499,7 +33517,7 @@
         <v>9395172</v>
       </c>
     </row>
-    <row r="34" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="52">
         <v>42</v>
       </c>
@@ -33684,7 +33702,7 @@
         <v>9457806</v>
       </c>
     </row>
-    <row r="35" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="52">
         <v>43</v>
       </c>
@@ -33869,7 +33887,7 @@
         <v>9473465</v>
       </c>
     </row>
-    <row r="36" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="52">
         <v>44</v>
       </c>
@@ -34054,7 +34072,7 @@
         <v>9536099</v>
       </c>
     </row>
-    <row r="37" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="52">
         <v>45</v>
       </c>
@@ -34239,7 +34257,7 @@
         <v>9567416</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="52">
         <v>46</v>
       </c>
@@ -34424,7 +34442,7 @@
         <v>9598734</v>
       </c>
     </row>
-    <row r="39" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="52">
         <v>47</v>
       </c>
@@ -34609,7 +34627,7 @@
         <v>9645710</v>
       </c>
     </row>
-    <row r="40" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="52">
         <v>48</v>
       </c>
@@ -34794,7 +34812,7 @@
         <v>9661368</v>
       </c>
     </row>
-    <row r="41" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="52">
         <v>49</v>
       </c>
@@ -34979,7 +34997,7 @@
         <v>9724003</v>
       </c>
     </row>
-    <row r="42" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="52">
         <v>50</v>
       </c>
@@ -35164,7 +35182,7 @@
         <v>9739661</v>
       </c>
     </row>
-    <row r="43" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="52">
         <v>51</v>
       </c>
@@ -35349,7 +35367,7 @@
         <v>9802296</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="52">
         <v>52</v>
       </c>
@@ -35534,7 +35552,7 @@
         <v>9817954</v>
       </c>
     </row>
-    <row r="45" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="52">
         <v>53</v>
       </c>
@@ -35719,7 +35737,7 @@
         <v>9864930</v>
       </c>
     </row>
-    <row r="46" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="52">
         <v>54</v>
       </c>
@@ -35904,7 +35922,7 @@
         <v>9896247</v>
       </c>
     </row>
-    <row r="47" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="52">
         <v>55</v>
       </c>
@@ -36089,7 +36107,7 @@
         <v>9943223</v>
       </c>
     </row>
-    <row r="48" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="52">
         <v>56</v>
       </c>
@@ -36274,7 +36292,7 @@
         <v>9958882</v>
       </c>
     </row>
-    <row r="49" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="52">
         <v>57</v>
       </c>
@@ -36459,7 +36477,7 @@
         <v>10021516</v>
       </c>
     </row>
-    <row r="50" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="52">
         <v>58</v>
       </c>
@@ -36644,7 +36662,7 @@
         <v>10037175</v>
       </c>
     </row>
-    <row r="51" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="52">
         <v>59</v>
       </c>
@@ -36829,7 +36847,7 @@
         <v>10084151</v>
       </c>
     </row>
-    <row r="52" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="52">
         <v>60</v>
       </c>
@@ -37014,7 +37032,7 @@
         <v>10115468</v>
       </c>
     </row>
-    <row r="53" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="52">
         <v>61</v>
       </c>
@@ -37199,7 +37217,7 @@
         <v>10162444</v>
       </c>
     </row>
-    <row r="54" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="52">
         <v>62</v>
       </c>
@@ -37384,7 +37402,7 @@
         <v>10209420</v>
       </c>
     </row>
-    <row r="55" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="52">
         <v>63</v>
       </c>
@@ -37569,7 +37587,7 @@
         <v>10225079</v>
       </c>
     </row>
-    <row r="56" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="52">
         <v>64</v>
       </c>
@@ -37754,7 +37772,7 @@
         <v>10287713</v>
       </c>
     </row>
-    <row r="57" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="52">
         <v>65</v>
       </c>
@@ -37939,7 +37957,7 @@
         <v>10303372</v>
       </c>
     </row>
-    <row r="58" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="52">
         <v>66</v>
       </c>
@@ -38124,7 +38142,7 @@
         <v>10366006</v>
       </c>
     </row>
-    <row r="59" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="52">
         <v>67</v>
       </c>
@@ -38309,7 +38327,7 @@
         <v>10397323</v>
       </c>
     </row>
-    <row r="60" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="52">
         <v>68</v>
       </c>
@@ -38494,7 +38512,7 @@
         <v>10475616</v>
       </c>
     </row>
-    <row r="61" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="52">
         <v>69</v>
       </c>
@@ -38679,7 +38697,7 @@
         <v>10538251</v>
       </c>
     </row>
-    <row r="62" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="52">
         <v>70</v>
       </c>
@@ -38864,7 +38882,7 @@
         <v>10600885</v>
       </c>
     </row>
-    <row r="63" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="52">
         <v>71</v>
       </c>
@@ -39049,7 +39067,7 @@
         <v>10663520</v>
       </c>
     </row>
-    <row r="64" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="52">
         <v>72</v>
       </c>
@@ -39234,7 +39252,7 @@
         <v>10741813</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="52">
         <v>73</v>
       </c>
@@ -39419,7 +39437,7 @@
         <v>10851423</v>
       </c>
     </row>
-    <row r="66" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="52">
         <v>74</v>
       </c>
@@ -39604,7 +39622,7 @@
         <v>10945375</v>
       </c>
     </row>
-    <row r="67" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="52">
         <v>75</v>
       </c>
@@ -39789,7 +39807,7 @@
         <v>11039327</v>
       </c>
     </row>
-    <row r="68" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="52">
         <v>76</v>
       </c>
@@ -39974,7 +39992,7 @@
         <v>11133278</v>
       </c>
     </row>
-    <row r="69" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="52">
         <v>77</v>
       </c>
@@ -40159,7 +40177,7 @@
         <v>11227230</v>
       </c>
     </row>
-    <row r="70" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="52">
         <v>78</v>
       </c>
@@ -40344,7 +40362,7 @@
         <v>11368158</v>
       </c>
     </row>
-    <row r="71" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="52">
         <v>79</v>
       </c>
@@ -40529,7 +40547,7 @@
         <v>11477768</v>
       </c>
     </row>
-    <row r="72" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="52">
         <v>80</v>
       </c>
@@ -40714,7 +40732,7 @@
         <v>11603037</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73" s="69" t="s">
         <v>975</v>
       </c>
@@ -40779,7 +40797,7 @@
       <c r="BH73" s="67"/>
       <c r="BI73" s="68"/>
     </row>
-    <row r="74" spans="1:61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>976</v>
       </c>
@@ -40986,15 +41004,15 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="23" customWidth="1"/>
-    <col min="2" max="52" width="10.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="9.7109375" style="23" customWidth="1"/>
+    <col min="2" max="52" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>634</v>
       </c>
@@ -41069,7 +41087,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
       <c r="B2" s="24" t="s">
         <v>637</v>
@@ -41226,7 +41244,7 @@
       </c>
       <c r="BA2" s="71"/>
     </row>
-    <row r="3" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -41281,7 +41299,7 @@
       <c r="AZ3" s="24"/>
       <c r="BA3" s="24"/>
     </row>
-    <row r="4" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -41442,7 +41460,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="28">
         <v>31787</v>
@@ -41601,7 +41619,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -41656,7 +41674,7 @@
       <c r="AZ6" s="24"/>
       <c r="BA6" s="24"/>
     </row>
-    <row r="7" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>690</v>
       </c>
@@ -41817,7 +41835,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -41872,7 +41890,7 @@
       <c r="AZ8" s="24"/>
       <c r="BA8" s="24"/>
     </row>
-    <row r="9" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>4</v>
       </c>
@@ -42033,7 +42051,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="28">
         <v>35232</v>
@@ -42192,7 +42210,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -42247,7 +42265,7 @@
       <c r="AZ11" s="24"/>
       <c r="BA11" s="24"/>
     </row>
-    <row r="12" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>5</v>
       </c>
@@ -42408,7 +42426,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="28">
         <v>35232</v>
@@ -42567,7 +42585,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -42622,7 +42640,7 @@
       <c r="AZ14" s="24"/>
       <c r="BA14" s="24"/>
     </row>
-    <row r="15" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>691</v>
       </c>
@@ -42783,7 +42801,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -42838,7 +42856,7 @@
       <c r="AZ16" s="24"/>
       <c r="BA16" s="24"/>
     </row>
-    <row r="17" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>6</v>
       </c>
@@ -42999,7 +43017,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="28">
         <v>49481</v>
@@ -43158,7 +43176,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -43213,7 +43231,7 @@
       <c r="AZ19" s="24"/>
       <c r="BA19" s="24"/>
     </row>
-    <row r="20" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>7</v>
       </c>
@@ -43374,7 +43392,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="28">
         <v>21139</v>
@@ -43533,7 +43551,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="22" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -43588,7 +43606,7 @@
       <c r="AZ22" s="24"/>
       <c r="BA22" s="24"/>
     </row>
-    <row r="23" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>692</v>
       </c>
@@ -43749,7 +43767,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -43804,7 +43822,7 @@
       <c r="AZ24" s="24"/>
       <c r="BA24" s="24"/>
     </row>
-    <row r="25" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>8</v>
       </c>
@@ -43965,7 +43983,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="26" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="28">
         <v>24741</v>
@@ -44124,7 +44142,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -44179,7 +44197,7 @@
       <c r="AZ27" s="24"/>
       <c r="BA27" s="24"/>
     </row>
-    <row r="28" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>693</v>
       </c>
@@ -44340,7 +44358,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -44395,7 +44413,7 @@
       <c r="AZ29" s="24"/>
       <c r="BA29" s="24"/>
     </row>
-    <row r="30" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>9</v>
       </c>
@@ -44556,7 +44574,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="28">
         <v>261186</v>
@@ -44715,7 +44733,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="32" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -44770,7 +44788,7 @@
       <c r="AZ32" s="24"/>
       <c r="BA32" s="24"/>
     </row>
-    <row r="33" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>10</v>
       </c>
@@ -44931,7 +44949,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="34" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="28">
         <v>278723</v>
@@ -45090,7 +45108,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="35" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -45145,7 +45163,7 @@
       <c r="AZ35" s="24"/>
       <c r="BA35" s="24"/>
     </row>
-    <row r="36" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <v>11</v>
       </c>
@@ -45306,7 +45324,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="37" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="28">
         <v>324603</v>
@@ -45465,7 +45483,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -45520,7 +45538,7 @@
       <c r="AZ38" s="24"/>
       <c r="BA38" s="24"/>
     </row>
-    <row r="39" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <v>12</v>
       </c>
@@ -45681,7 +45699,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="40" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="28">
         <v>63574</v>
@@ -45865,12 +45883,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>634</v>
       </c>
@@ -46028,7 +46046,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63">
         <v>13</v>
       </c>
@@ -46186,7 +46204,7 @@
         <v>349187</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>14</v>
       </c>
@@ -46344,7 +46362,7 @@
         <v>1401446</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>15</v>
       </c>
@@ -46502,7 +46520,7 @@
         <v>1576823</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>16</v>
       </c>
@@ -46660,7 +46678,7 @@
         <v>1749068</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>17</v>
       </c>
@@ -46832,9 +46850,9 @@
       <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
         <v>748</v>
       </c>
@@ -46890,7 +46908,7 @@
       <c r="AY1" s="32"/>
       <c r="AZ1" s="32"/>
     </row>
-    <row r="2" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>749</v>
       </c>
@@ -46946,7 +46964,7 @@
       <c r="AY2" s="32"/>
       <c r="AZ2" s="32"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>750</v>
       </c>
@@ -47014,7 +47032,7 @@
       <c r="AY3" s="73"/>
       <c r="AZ3" s="74"/>
     </row>
-    <row r="4" spans="1:52" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="33" t="s">
         <v>751</v>
@@ -47170,7 +47188,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>1</v>
       </c>
@@ -47328,7 +47346,7 @@
         <v>68898</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>2</v>
       </c>
@@ -47486,7 +47504,7 @@
         <v>139362</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>3</v>
       </c>
@@ -47644,7 +47662,7 @@
         <v>208260</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>4</v>
       </c>
@@ -47802,7 +47820,7 @@
         <v>280289</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>5</v>
       </c>
@@ -47960,7 +47978,7 @@
         <v>347621</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>6</v>
       </c>
@@ -48118,7 +48136,7 @@
         <v>419651</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>7</v>
       </c>
@@ -48276,7 +48294,7 @@
         <v>487296</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>8</v>
       </c>
@@ -48434,7 +48452,7 @@
         <v>560579</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>9</v>
       </c>
@@ -48592,7 +48610,7 @@
         <v>627911</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>10</v>
       </c>
@@ -48750,7 +48768,7 @@
         <v>699940</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>11</v>
       </c>
@@ -48908,7 +48926,7 @@
         <v>768838</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>12</v>
       </c>
@@ -49066,7 +49084,7 @@
         <v>840868</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>13</v>
       </c>
@@ -49224,7 +49242,7 @@
         <v>908200</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>14</v>
       </c>
@@ -49382,7 +49400,7 @@
         <v>980230</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>15</v>
       </c>
@@ -49540,7 +49558,7 @@
         <v>1049128</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>16</v>
       </c>
@@ -49698,7 +49716,7 @@
         <v>1121157</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>17</v>
       </c>
@@ -49856,7 +49874,7 @@
         <v>1190055</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>18</v>
       </c>
@@ -50014,7 +50032,7 @@
         <v>1260519</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>19</v>
       </c>
@@ -50172,7 +50190,7 @@
         <v>1329417</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>20</v>
       </c>
@@ -50330,7 +50348,7 @@
         <v>1401446</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>21</v>
       </c>
@@ -50488,7 +50506,7 @@
         <v>1468779</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>22</v>
       </c>
@@ -50646,7 +50664,7 @@
         <v>1540808</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>23</v>
       </c>
@@ -50804,7 +50822,7 @@
         <v>1609706</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>24</v>
       </c>
@@ -50962,7 +50980,7 @@
         <v>1681736</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>25</v>
       </c>
@@ -51120,7 +51138,7 @@
         <v>1749068</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>26</v>
       </c>
@@ -51278,7 +51296,7 @@
         <v>1821097</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>27</v>
       </c>
@@ -51436,7 +51454,7 @@
         <v>1889995</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>28</v>
       </c>
@@ -51594,7 +51612,7 @@
         <v>1960459</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>29</v>
       </c>
@@ -51752,7 +51770,7 @@
         <v>2018396</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>30</v>
       </c>
@@ -51934,9 +51952,9 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
         <v>802</v>
       </c>
@@ -52001,7 +52019,7 @@
       <c r="BH1" s="38"/>
       <c r="BI1" s="38"/>
     </row>
-    <row r="2" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="80" t="s">
         <v>803</v>
       </c>
@@ -52066,7 +52084,7 @@
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
     </row>
-    <row r="3" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
         <v>804</v>
       </c>
@@ -52133,7 +52151,7 @@
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
     </row>
-    <row r="4" spans="1:61" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="82"/>
       <c r="B4" s="39" t="s">
         <v>806</v>
@@ -52316,7 +52334,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>19</v>
       </c>
@@ -52501,7 +52519,7 @@
         <v>758190</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
         <v>20</v>
       </c>
@@ -52686,7 +52704,7 @@
         <v>652182</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
         <v>21</v>
       </c>
@@ -52871,7 +52889,7 @@
         <v>1137442</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="40">
         <v>22</v>
       </c>
@@ -53056,7 +53074,7 @@
         <v>566685</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="40">
         <v>23</v>
       </c>
@@ -53241,7 +53259,7 @@
         <v>738304</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
         <v>24</v>
       </c>
@@ -53426,7 +53444,7 @@
         <v>494969</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>25</v>
       </c>
@@ -53611,7 +53629,7 @@
         <v>1077626</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>26</v>
       </c>
@@ -53796,7 +53814,7 @@
         <v>351223</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
         <v>27</v>
       </c>
@@ -53981,7 +53999,7 @@
         <v>506870</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>866</v>
       </c>
@@ -54166,7 +54184,7 @@
         <v>343707</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
         <v>28</v>
       </c>
@@ -54351,7 +54369,7 @@
         <v>359209</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="40">
         <v>29</v>
       </c>
@@ -54555,9 +54573,9 @@
       <selection sqref="A1:H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>867</v>
       </c>
@@ -54571,7 +54589,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>696</v>
       </c>
@@ -54583,7 +54601,7 @@
       <c r="G2" s="89"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="88"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
@@ -54603,7 +54621,7 @@
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="88"/>
       <c r="B4" s="45">
         <v>93</v>
@@ -54625,7 +54643,7 @@
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>874</v>
       </c>
@@ -54649,7 +54667,7 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>875</v>
       </c>
@@ -54673,7 +54691,7 @@
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>876</v>
       </c>
@@ -54697,7 +54715,7 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>877</v>
       </c>
@@ -54721,7 +54739,7 @@
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>878</v>
       </c>
@@ -54745,7 +54763,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>879</v>
       </c>
@@ -54769,7 +54787,7 @@
       </c>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>880</v>
       </c>
@@ -54793,7 +54811,7 @@
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>881</v>
       </c>
@@ -54817,7 +54835,7 @@
       </c>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>882</v>
       </c>
@@ -54841,7 +54859,7 @@
       </c>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>883</v>
       </c>
@@ -54865,7 +54883,7 @@
       </c>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>884</v>
       </c>
@@ -54889,7 +54907,7 @@
       </c>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>885</v>
       </c>
@@ -54913,7 +54931,7 @@
       </c>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>886</v>
       </c>
@@ -54937,7 +54955,7 @@
       </c>
       <c r="H17" s="32"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>887</v>
       </c>
@@ -54961,7 +54979,7 @@
       </c>
       <c r="H18" s="32"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>888</v>
       </c>
@@ -54985,7 +55003,7 @@
       </c>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
         <v>889</v>
       </c>
@@ -55009,7 +55027,7 @@
       </c>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>890</v>
       </c>
@@ -55033,7 +55051,7 @@
       </c>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>891</v>
       </c>
@@ -55057,7 +55075,7 @@
       </c>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>892</v>
       </c>
@@ -55081,7 +55099,7 @@
       </c>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>893</v>
       </c>
@@ -55105,7 +55123,7 @@
       </c>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>894</v>
       </c>
@@ -55129,7 +55147,7 @@
       </c>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>895</v>
       </c>
@@ -55153,7 +55171,7 @@
       </c>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>896</v>
       </c>
@@ -55177,7 +55195,7 @@
       </c>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>897</v>
       </c>
@@ -55201,7 +55219,7 @@
       </c>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>898</v>
       </c>
@@ -55225,7 +55243,7 @@
       </c>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>899</v>
       </c>
@@ -55249,7 +55267,7 @@
       </c>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>900</v>
       </c>
@@ -55273,7 +55291,7 @@
       </c>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>901</v>
       </c>
@@ -55297,7 +55315,7 @@
       </c>
       <c r="H32" s="32"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>902</v>
       </c>
@@ -55321,7 +55339,7 @@
       </c>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>903</v>
       </c>
@@ -55345,7 +55363,7 @@
       </c>
       <c r="H34" s="32"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>904</v>
       </c>
@@ -55369,7 +55387,7 @@
       </c>
       <c r="H35" s="32"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>905</v>
       </c>
@@ -55393,7 +55411,7 @@
       </c>
       <c r="H36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>906</v>
       </c>
@@ -55417,7 +55435,7 @@
       </c>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>907</v>
       </c>
@@ -55441,7 +55459,7 @@
       </c>
       <c r="H38" s="32"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>908</v>
       </c>
@@ -55465,7 +55483,7 @@
       </c>
       <c r="H39" s="32"/>
     </row>
-    <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>909</v>
       </c>
@@ -55489,7 +55507,7 @@
       </c>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>910</v>
       </c>
@@ -55513,7 +55531,7 @@
       </c>
       <c r="H41" s="32"/>
     </row>
-    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>911</v>
       </c>
@@ -55537,7 +55555,7 @@
       </c>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>912</v>
       </c>
@@ -55561,7 +55579,7 @@
       </c>
       <c r="H43" s="32"/>
     </row>
-    <row r="44" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
         <v>913</v>
       </c>
@@ -55585,7 +55603,7 @@
       </c>
       <c r="H44" s="32"/>
     </row>
-    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
         <v>914</v>
       </c>
@@ -55609,7 +55627,7 @@
       </c>
       <c r="H45" s="32"/>
     </row>
-    <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>915</v>
       </c>
@@ -55633,7 +55651,7 @@
       </c>
       <c r="H46" s="32"/>
     </row>
-    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
         <v>916</v>
       </c>
@@ -55657,7 +55675,7 @@
       </c>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>917</v>
       </c>
@@ -55681,7 +55699,7 @@
       </c>
       <c r="H48" s="32"/>
     </row>
-    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>918</v>
       </c>
@@ -55705,7 +55723,7 @@
       </c>
       <c r="H49" s="32"/>
     </row>
-    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
         <v>919</v>
       </c>
@@ -55729,7 +55747,7 @@
       </c>
       <c r="H50" s="32"/>
     </row>
-    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>920</v>
       </c>
@@ -55753,7 +55771,7 @@
       </c>
       <c r="H51" s="32"/>
     </row>
-    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>921</v>
       </c>
@@ -55777,7 +55795,7 @@
       </c>
       <c r="H52" s="32"/>
     </row>
-    <row r="53" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
         <v>922</v>
       </c>
@@ -55801,7 +55819,7 @@
       </c>
       <c r="H53" s="32"/>
     </row>
-    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
         <v>923</v>
       </c>
@@ -55825,7 +55843,7 @@
       </c>
       <c r="H54" s="32"/>
     </row>
-    <row r="55" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
         <v>924</v>
       </c>
@@ -55868,9 +55886,9 @@
       <selection sqref="A1:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>925</v>
       </c>
@@ -55882,7 +55900,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>696</v>
       </c>
@@ -55896,7 +55914,7 @@
       <c r="G2" s="68"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="91"/>
       <c r="B3" s="24" t="s">
         <v>927</v>
@@ -55918,7 +55936,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="91"/>
       <c r="B4" s="69" t="s">
         <v>928</v>
@@ -55930,7 +55948,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="71"/>
       <c r="B5" s="29">
         <v>99</v>
@@ -55952,7 +55970,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>874</v>
       </c>
@@ -55976,7 +55994,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>875</v>
       </c>
@@ -56000,7 +56018,7 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>876</v>
       </c>
@@ -56024,7 +56042,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>877</v>
       </c>
@@ -56048,7 +56066,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>878</v>
       </c>
@@ -56072,7 +56090,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
         <v>879</v>
       </c>
@@ -56096,7 +56114,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>880</v>
       </c>
@@ -56120,7 +56138,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
         <v>881</v>
       </c>
@@ -56144,7 +56162,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>882</v>
       </c>
@@ -56168,7 +56186,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
         <v>883</v>
       </c>
@@ -56192,7 +56210,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>884</v>
       </c>
@@ -56216,7 +56234,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
         <v>885</v>
       </c>
@@ -56240,7 +56258,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>886</v>
       </c>
@@ -56264,7 +56282,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
         <v>887</v>
       </c>
@@ -56288,7 +56306,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>888</v>
       </c>
@@ -56312,7 +56330,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
         <v>889</v>
       </c>
@@ -56336,7 +56354,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>890</v>
       </c>
@@ -56360,7 +56378,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>891</v>
       </c>
@@ -56384,7 +56402,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>892</v>
       </c>
@@ -56408,7 +56426,7 @@
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>893</v>
       </c>
@@ -56432,7 +56450,7 @@
       </c>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>894</v>
       </c>
@@ -56456,7 +56474,7 @@
       </c>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
         <v>895</v>
       </c>
@@ -56480,7 +56498,7 @@
       </c>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>896</v>
       </c>
@@ -56504,7 +56522,7 @@
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
         <v>897</v>
       </c>
@@ -56528,7 +56546,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
         <v>898</v>
       </c>
@@ -56552,7 +56570,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
         <v>899</v>
       </c>
@@ -56576,7 +56594,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
         <v>900</v>
       </c>
@@ -56600,7 +56618,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
         <v>901</v>
       </c>
@@ -56624,7 +56642,7 @@
       </c>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
         <v>902</v>
       </c>
@@ -56648,7 +56666,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
         <v>903</v>
       </c>
@@ -56672,7 +56690,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
         <v>904</v>
       </c>
@@ -56696,7 +56714,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
         <v>905</v>
       </c>
@@ -56720,7 +56738,7 @@
       </c>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
         <v>906</v>
       </c>
@@ -56744,7 +56762,7 @@
       </c>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
         <v>907</v>
       </c>
@@ -56768,7 +56786,7 @@
       </c>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
         <v>908</v>
       </c>
@@ -56792,7 +56810,7 @@
       </c>
       <c r="H40" s="23"/>
     </row>
-    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
         <v>909</v>
       </c>
@@ -56816,7 +56834,7 @@
       </c>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
         <v>910</v>
       </c>
@@ -56840,7 +56858,7 @@
       </c>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
         <v>911</v>
       </c>
@@ -56864,7 +56882,7 @@
       </c>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
         <v>912</v>
       </c>
@@ -56888,7 +56906,7 @@
       </c>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>913</v>
       </c>
@@ -56912,7 +56930,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
         <v>914</v>
       </c>
@@ -56936,7 +56954,7 @@
       </c>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
         <v>915</v>
       </c>
@@ -56960,7 +56978,7 @@
       </c>
       <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
         <v>916</v>
       </c>
@@ -56984,7 +57002,7 @@
       </c>
       <c r="H48" s="23"/>
     </row>
-    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
         <v>917</v>
       </c>
@@ -57008,7 +57026,7 @@
       </c>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
         <v>918</v>
       </c>
@@ -57032,7 +57050,7 @@
       </c>
       <c r="H50" s="23"/>
     </row>
-    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
         <v>919</v>
       </c>
@@ -57056,7 +57074,7 @@
       </c>
       <c r="H51" s="23"/>
     </row>
-    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
         <v>920</v>
       </c>
@@ -57080,7 +57098,7 @@
       </c>
       <c r="H52" s="23"/>
     </row>
-    <row r="53" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A53" s="49" t="s">
         <v>921</v>
       </c>
@@ -57104,7 +57122,7 @@
       </c>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
         <v>922</v>
       </c>
@@ -57128,7 +57146,7 @@
       </c>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
         <v>923</v>
       </c>
@@ -57152,7 +57170,7 @@
       </c>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A56" s="49" t="s">
         <v>924</v>
       </c>

--- a/Train/Files/Стоимость.xlsx
+++ b/Train/Files/Стоимость.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Abbosbek\Documents\Visual Studio 2022\Projects\Abbossbek\Train-new\Train\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\abbosbek\Documents\Visual Studio 2022\Projects\Abbossbek\Train-new\Train\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3282B47-3059-4AC6-83DC-A905897F0D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914EE90-EA76-4FC1-A1A1-17FAAA44057A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="3915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
@@ -13110,6 +13110,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -13193,9 +13196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13481,7 +13481,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13524,7 +13524,7 @@
         <v>631</v>
       </c>
       <c r="F2">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -13571,7 +13571,7 @@
       <c r="C5" s="57">
         <v>8</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="64" t="s">
         <v>997</v>
       </c>
       <c r="F5">
@@ -27080,18 +27080,18 @@
       </c>
     </row>
     <row r="73" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -40733,69 +40733,69 @@
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="70" t="s">
         <v>975</v>
       </c>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="68"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="68"/>
-      <c r="AC73" s="67"/>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-      <c r="AK73" s="68"/>
-      <c r="AL73" s="67"/>
-      <c r="AM73" s="67"/>
-      <c r="AN73" s="67"/>
-      <c r="AO73" s="67"/>
-      <c r="AP73" s="67"/>
-      <c r="AQ73" s="67"/>
-      <c r="AR73" s="67"/>
-      <c r="AS73" s="67"/>
-      <c r="AT73" s="68"/>
-      <c r="AU73" s="67"/>
-      <c r="AV73" s="67"/>
-      <c r="AW73" s="67"/>
-      <c r="AX73" s="67"/>
-      <c r="AY73" s="67"/>
-      <c r="AZ73" s="67"/>
-      <c r="BA73" s="67"/>
-      <c r="BB73" s="67"/>
-      <c r="BC73" s="68"/>
-      <c r="BD73" s="67"/>
-      <c r="BE73" s="67"/>
-      <c r="BF73" s="67"/>
-      <c r="BG73" s="67"/>
-      <c r="BH73" s="67"/>
-      <c r="BI73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="68"/>
+      <c r="X73" s="68"/>
+      <c r="Y73" s="68"/>
+      <c r="Z73" s="68"/>
+      <c r="AA73" s="68"/>
+      <c r="AB73" s="69"/>
+      <c r="AC73" s="68"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+      <c r="AH73" s="68"/>
+      <c r="AI73" s="68"/>
+      <c r="AJ73" s="68"/>
+      <c r="AK73" s="69"/>
+      <c r="AL73" s="68"/>
+      <c r="AM73" s="68"/>
+      <c r="AN73" s="68"/>
+      <c r="AO73" s="68"/>
+      <c r="AP73" s="68"/>
+      <c r="AQ73" s="68"/>
+      <c r="AR73" s="68"/>
+      <c r="AS73" s="68"/>
+      <c r="AT73" s="69"/>
+      <c r="AU73" s="68"/>
+      <c r="AV73" s="68"/>
+      <c r="AW73" s="68"/>
+      <c r="AX73" s="68"/>
+      <c r="AY73" s="68"/>
+      <c r="AZ73" s="68"/>
+      <c r="BA73" s="68"/>
+      <c r="BB73" s="68"/>
+      <c r="BC73" s="69"/>
+      <c r="BD73" s="68"/>
+      <c r="BE73" s="68"/>
+      <c r="BF73" s="68"/>
+      <c r="BG73" s="68"/>
+      <c r="BH73" s="68"/>
+      <c r="BI73" s="69"/>
     </row>
     <row r="74" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
@@ -41013,82 +41013,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>634</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="69" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69" t="s">
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="69" t="s">
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="69" t="s">
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="70" t="s">
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="71" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="24" t="s">
         <v>637</v>
       </c>
@@ -41242,7 +41242,7 @@
       <c r="AZ2" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="BA2" s="71"/>
+      <c r="BA2" s="72"/>
     </row>
     <row r="3" spans="1:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
@@ -46853,18 +46853,18 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
@@ -46909,18 +46909,18 @@
       <c r="AZ1" s="32"/>
     </row>
     <row r="2" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -46965,75 +46965,75 @@
       <c r="AZ2" s="32"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>750</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="72" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="72" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="72" t="s">
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="72" t="s">
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="75"/>
     </row>
     <row r="4" spans="1:52" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="33" t="s">
         <v>751</v>
       </c>
@@ -51955,17 +51955,17 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
@@ -52020,17 +52020,17 @@
       <c r="BI1" s="38"/>
     </row>
     <row r="2" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
@@ -52085,18 +52085,18 @@
       <c r="BI2" s="38"/>
     </row>
     <row r="3" spans="1:61" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>804</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>805</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
@@ -52152,7 +52152,7 @@
       <c r="BI3" s="38"/>
     </row>
     <row r="4" spans="1:61" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="39" t="s">
         <v>806</v>
       </c>
@@ -54579,30 +54579,30 @@
       <c r="A1" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>868</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>696</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
         <v>869</v>
@@ -54622,7 +54622,7 @@
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="45">
         <v>93</v>
       </c>
@@ -55889,33 +55889,33 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>696</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>926</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="24" t="s">
         <v>927</v>
       </c>
@@ -55937,19 +55937,19 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="70" t="s">
         <v>928</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="29">
         <v>99</v>
       </c>

--- a/Train/Files/Стоимость.xlsx
+++ b/Train/Files/Стоимость.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\abbosbek\Documents\Visual Studio 2022\Projects\Abbossbek\Train-new\Train\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914EE90-EA76-4FC1-A1A1-17FAAA44057A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF59E27-10C1-4455-BACC-9BE88C53B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
@@ -13481,7 +13481,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13507,7 +13507,7 @@
         <v>630</v>
       </c>
       <c r="F1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
